--- a/streamlit/stock_app/weightedAvgPrice.xlsx
+++ b/streamlit/stock_app/weightedAvgPrice.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02 Mar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04 Mar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -514,4 +515,547 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>scripCode</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>companyName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>04 Mar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>500002</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABB India Limited</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5593.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>500003</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AEGIS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>439.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>500008</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amara Raja Energy &amp; Mobility Ltd</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>850.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>500009</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AMBALAL SARABHAI ENTERPRISES LTD.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>500012</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ANDHRA PETROCHEMICALS LTD.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>86.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>500014</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Utique Enterprises Ltd</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>500016</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ARUNA HOTELS LTD.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>500020</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BOMBAY DYEING &amp; MFG.CO.LTD.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>184.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>500023</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Asian Hotels (North) Limited</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>134.85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>500027</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATUL LTD.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6142.17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>500028</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ATV PROJECTS INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>20.31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>500031</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BAJAJ ELECTRICALS LTD.-$</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1006.22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>500032</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bajaj Hindusthan Sugar Limited</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>500033</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FORCE MOTORS LTD.-$</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6528.59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>500034</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Limited</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6614.51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>500038</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BALRAMPUR CHINI MILLS LTD.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>381.28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>500039</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BANCO PRODUCTS (INDIA) LTD.-$</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>670.74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>500040</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CENTURY TEXTILES &amp; INDUSTRIES LTD.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1445.87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>500041</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BANNARI AMMAN SUGARS LTD.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2632.04</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>500042</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BASF INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3338.26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>500043</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BATA INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1423.49</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>500048</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BEML LTD.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3157.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>500049</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BHARAT ELECTRONICS LTD.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>210.63</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>500052</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BHANSALI ENGINEERING POLYMERS LTD.-$</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>96.31999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>500058</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BIHAR SPONGE IRON LTD.</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>500059</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BINANI INDUSTRIES LTD.</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>500060</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Birla Cable Ltd</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>294.34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>500067</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BLUE STAR LTD.</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1314.29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>500068</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DISA INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>14573.06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>500069</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Quest Capital Markets Ltd</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>341.19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>500074</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BPL LTD.</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>99.26000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>500078</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Oriental Aromatics Ltd-$</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>350.67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>500083</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CENTURY EXTRUSIONS LTD.</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>500084</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CESC LTD.</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>131.55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>500085</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHAMBAL FERTILISERS &amp; CHEMICALS LTD.</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>354.81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>500086</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EXIDE INDUSTRIES LTD.</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>500087</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CIPLA LTD.</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1484.14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>500089</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DIC INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>474.69</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>500092</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CRISIL LTD.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4993.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>